--- a/medicine/Mort/Décès_en_1964/Décès_en_1964.xlsx
+++ b/medicine/Mort/Décès_en_1964/Décès_en_1964.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1964</t>
+          <t>Décès_en_1964</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1964</t>
+          <t>Décès_en_1964</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,16 +540,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Clémentine Ballot, peintre française (° 20 décembre 1879).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Clémentine Ballot, peintre française (° 20 décembre 1879).
 Georges Barat-Levraux, peintre français (° 1878).
 Larbi Bensari, musicien algérien (° 1867).
 Camille de Buzon, peintre français (° 1885).
 Adolphe Milich, peintre français d'origine polonaise (° 1884).
 Matteo Sandonà, peintre américain (° 15 avril 1883).
-Karl Ehrenbolger, footballeur international suisse (° 13 novembre 1899).
-Janvier
-7 janvier : Colin McPhee, compositeur canadien (° 15 mars 1900).
+Karl Ehrenbolger, footballeur international suisse (° 13 novembre 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 janvier : Colin McPhee, compositeur canadien (° 15 mars 1900).
 13 janvier : Felisberto Hernández, écrivain, pianiste et musicien uruguayen (° 20 octobre 1902).
 17 janvier : Đorđe Andrejević Kun, peintre serbe puis yougoslave (° 31 mars 1904).
 19 janvier :
@@ -550,9 +601,43 @@
 23 janvier : Lucila Gamero de Medina, romancière, médecin et féministe hondurienne (° 12 juin 1873).
 24 janvier : Louisa Durrell, mère de Lawrence Durrell, de Gerald Durrell et de Margaret Durrell (° 16 janvier 1886).
 25 janvier : Fernand Guey, peintre français (° 26 février 1887).
-29 janvier : Alan Ladd, acteur américain (° 3 septembre 1913).
-Février
-2 février : Gabrielle Bonaventure, peintre française (° 26 juin 1890).
+29 janvier : Alan Ladd, acteur américain (° 3 septembre 1913).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Gabrielle Bonaventure, peintre française (° 26 juin 1890).
 3 février : Adolphe Piriou, compositeur français (° 7 septembre 1878).
 4 février : Emilien Barthélemy, peintre français (° 3 février 1885).
 6 février :  Elmo Billings, acteur et monteur américain (° 24 juin 1912).
@@ -571,9 +656,43 @@
 29 février :
 Frank Albertson, acteur américain (° 2 février 1909).
 Victor Thuau, coureur cycliste français (° 14 août 1880).
-Robert Wehrlin, peintre et graveur suisse (° 8 mars 1903).
-Mars
-1er mars : Mary Gertrude Joyce, religieuse irlandaise (° 18 janvier 1884).
+Robert Wehrlin, peintre et graveur suisse (° 8 mars 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Mary Gertrude Joyce, religieuse irlandaise (° 18 janvier 1884).
 4 mars :
 Edwin August, acteur, réalisateur et scénariste américain (° 20 novembre 1883).
 Alfred Latour, peintre, graveur, affichiste et graphiste français (° 28 juillet 1888).
@@ -594,9 +713,43 @@
 25 mars : Willy Arend, coureur cycliste allemand (° 2 mai 1876).
 27 mars : Emil Reesen, compositeur, chef d'orchestre et pianiste danois (° 30 mai 1887).
 29 mars : Willem Andriessen, pianiste et compositeur néerlandais (° 25 octobre 1887).
-? mars : Samuel Canan, homme politique américain (° 7 juin 1898).
-Avril
-1er avril : Cristóbal Solà, footballeur espagnol (° 15 février 1908).
+? mars : Samuel Canan, homme politique américain (° 7 juin 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Cristóbal Solà, footballeur espagnol (° 15 février 1908).
 5 avril :
 Aloïse Corbaz, artiste suisse pratiquant l'Art brut (° 28 juin 1886).
 James Paul Chapin, ornithologue américain (° 9 juillet 1889).
@@ -608,9 +761,43 @@
 18 avril : Marguerite Charrier-Roy, peintre française (° 14 mai 1870).
 20 avril : Sergueï Guerassimov, peintre russe puis soviétique (° 1885).
 23 avril : Alberto Jiménez Fraud, pédagogue espagnol (° 4 février 1883).
-28 avril : Alexandre Koyré, philosophe français d'origine russe (° 29 août 1892).
-Mai
-1er mai : Cristòfor Taltabull, compositeur et pédagogue espagnol (° 28 juillet 1888).
+28 avril : Alexandre Koyré, philosophe français d'origine russe (° 29 août 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Cristòfor Taltabull, compositeur et pédagogue espagnol (° 28 juillet 1888).
 2 mai : Honoré Barthélémy, coureur cycliste français (° 25 septembre 1891).
 7 mai : Lucien de Maleville, peintre français (° 15 septembre 1881).
 8 mai : Marie Gross, résistante française (° 23 juillet 1889).
@@ -630,9 +817,43 @@
 Guy Dezaunay, peintre et dessinateur français (° 16 novembre 1896).
 José Quirante, joueur et entraîneur de football espagnol (° 15 mai 1883).
 Jean Ningres, peintre français (° 31 décembre 1878).
-? mai : Louis Hunkanrin, homme politique béninois (° décembre 1866).
-Juin
-2 juin : Norman Lee, réalisateur, scénariste, producteur et acteur britannique (° 10 octobre 1898).
+? mai : Louis Hunkanrin, homme politique béninois (° décembre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Norman Lee, réalisateur, scénariste, producteur et acteur britannique (° 10 octobre 1898).
 3 juin :
 Claude Dalbanne, bibliographe, historien, peintre, illustrateur et graveur français (° 16 octobre 1877).
 Frans Eemil Sillanpää, écrivain finlandais (° 16 septembre 1888).
@@ -648,9 +869,43 @@
 23 juin : Walter Rütt, coureur cycliste allemand (° 12 septembre 1883).
 29 juin : Félix Appenzeller, peintre et sculpteur suisse (° 18 août 1892).
 30 juin : Leonard Willey, acteur anglais (° 15 décembre 1882).
-? juin : Pierre Albert Génolhac, peintre français (° février 1896).
-Juillet
-4 juillet :
+? juin : Pierre Albert Génolhac, peintre français (° février 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4 juillet :
 Georges Cyr, peintre libanais d'origine française (° 3 juin 1880).
 Gaby Morlay, Actrice française (° 8 juin 1893).
 11 juillet :
@@ -663,9 +918,43 @@
 22 juillet : Benjamín Santos, joueur et entraîneur de football argentin (° 7 février 1924).
 23 juillet : Thakin Kodaw Hmaing, poète, écrivain et homme politique birman (° 23 mars 1876).
 25 juillet : Henri Marret, peintre français (° 15 février 1878).
-? juillet : Jean Lec, chansonnier, peintre et écrivain français (° 11 juillet 1899).
-Août
-1er août :
+? juillet : Jean Lec, chansonnier, peintre et écrivain français (° 11 juillet 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août :
 Jean Dehelly, peintre et acteur français (° 8 mars 1896).
 Pierre Georget, coureur cycliste français (° 9 août 1917).
 2 août : Marguerite Béclard d'Harcourt, compositrice et musicologue française (° 24 février 1884).
@@ -681,9 +970,43 @@
 19 août : Ardengo Soffici, écrivain, poète et peintre italien (° 7 avril 1879).
 20 août : Albert Brabo, peintre français (° 13 avril 1894).
 21 août : Palmiro Togliatti, homme politique italien (° 26 mars 1893).
-22 août : Benjamin Davis, homme politique afro-américain (° 8 septembre 1903).
-Septembre
-1er septembre : George Georgescu, chef d'orchestre roumain (° 12 septembre 1887).
+22 août : Benjamin Davis, homme politique afro-américain (° 8 septembre 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : George Georgescu, chef d'orchestre roumain (° 12 septembre 1887).
 2 septembre : Morris Ankrum, acteur américain (° 27 août 1896).
 3 septembre : Mario Lusiani, coureur cycliste italien (° 4 mai 1903).
 4 septembre : Clément Émile Roques, cardinal français, archevêque de Rennes (° 8 décembre 1880).
@@ -699,9 +1022,43 @@
 Tancredi Parmeggiani, peintre italien (° 25 septembre 1927).
 28 septembre :
 George Dyson, organiste et compositeur anglais (° 28 mai 1883).
-Harpo Marx, acteur américain (° 23 novembre 1888).
-Octobre
-5 octobre :
+Harpo Marx, acteur américain (° 23 novembre 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5 octobre :
 Egon Schultz, soldat est-allemand (° 4 janvier 1943).
 Roger Féral, journaliste, écrivain, scénariste et auteur dramatique français (° 19 octobre 1904).
 7 octobre : Lili Erzinger, artiste, peintre et dessinatrice suisse (° 9 mai 1908).
@@ -717,9 +1074,43 @@
 27 octobre : Rudolph Maté, réalisateur polonais (° 21 janvier 1898).
 31 octobre :
 Theodore Freeman, astronaute américain (° 18 février 1930).
-Khemaïs Tarnane, musicien et chanteur tunisien (° 1er juillet 1894).
-Novembre
-6 novembre : Hugo Koblet, coureur cycliste suisse (° 21 mars 1925).
+Khemaïs Tarnane, musicien et chanteur tunisien (° 1er juillet 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6 novembre : Hugo Koblet, coureur cycliste suisse (° 21 mars 1925).
 7 novembre : Gaston Chaissac, peintre et poète français (° 13 août 1910).
 9 novembre : Victor Regnart, peintre belge (° 26 janvier 1886).
 13 novembre : Gabriele Santini, chef d'orchestre italien (° 20 janvier 1886).
@@ -727,9 +1118,43 @@
 16 novembre : Reinhold Lohse, musicien de rue allemand (° 12 octobre 1878).
 19 novembre : Marguerite-Valentine Burdy, peintre française (° 28 mai 1874).
 26 novembre : Bodil Ipsen, réalisatrice danoise (° 30 août 1889).
-28 novembre : Lamberto Petri, footballeur italien (° 21 janvier 1910).
-Décembre
-2 décembre : Genrikh Oganessian, réalisateur et scénariste arménien (° 1er septembre 1918).
+28 novembre : Lamberto Petri, footballeur italien (° 21 janvier 1910).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1964</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1964</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Genrikh Oganessian, réalisateur et scénariste arménien (° 1er septembre 1918).
 5 décembre :
 René Bellanger, peintre français (° 2 décembre 1895).
 Louis Valdo-Barbey, dessinateur, peintre et décorateur français d'origine suisse (° 1er novembre 1880).
